--- a/src/data/DESEMPLEO.xlsx
+++ b/src/data/DESEMPLEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO ACUÑA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documentos\Proyecto Modelo Codigo\api-monitoreo-financiero\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0C84BA-1012-45E2-964A-DD549F793FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25D7AF-5BA2-47D7-A605-145F298015D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,9 +657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
